--- a/estudiante.xlsx
+++ b/estudiante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prueba\DataCube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FDA380A-797D-49A7-8DBF-E786B7479B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402183F0-662F-40F9-83D8-E0249DD818B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/estudiante.xlsx
+++ b/estudiante.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prueba\DataCube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402183F0-662F-40F9-83D8-E0249DD818B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7451AD2-9072-4977-B0BA-703908F9AA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="115">
   <si>
     <t>Edad</t>
   </si>
@@ -62,6 +62,309 @@
   </si>
   <si>
     <t>Indígena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_estudiante </t>
+  </si>
+  <si>
+    <t>TMP0001</t>
+  </si>
+  <si>
+    <t>TMP0002</t>
+  </si>
+  <si>
+    <t>TMP0003</t>
+  </si>
+  <si>
+    <t>TMP0004</t>
+  </si>
+  <si>
+    <t>TMP0005</t>
+  </si>
+  <si>
+    <t>TMP0006</t>
+  </si>
+  <si>
+    <t>TMP0007</t>
+  </si>
+  <si>
+    <t>TMP0008</t>
+  </si>
+  <si>
+    <t>TMP0009</t>
+  </si>
+  <si>
+    <t>TMP0010</t>
+  </si>
+  <si>
+    <t>TMP0011</t>
+  </si>
+  <si>
+    <t>TMP0012</t>
+  </si>
+  <si>
+    <t>TMP0013</t>
+  </si>
+  <si>
+    <t>TMP0014</t>
+  </si>
+  <si>
+    <t>TMP0015</t>
+  </si>
+  <si>
+    <t>TMP0016</t>
+  </si>
+  <si>
+    <t>TMP0017</t>
+  </si>
+  <si>
+    <t>TMP0018</t>
+  </si>
+  <si>
+    <t>TMP0019</t>
+  </si>
+  <si>
+    <t>TMP0020</t>
+  </si>
+  <si>
+    <t>TMP0021</t>
+  </si>
+  <si>
+    <t>TMP0022</t>
+  </si>
+  <si>
+    <t>TMP0023</t>
+  </si>
+  <si>
+    <t>TMP0024</t>
+  </si>
+  <si>
+    <t>TMP0025</t>
+  </si>
+  <si>
+    <t>TMP0026</t>
+  </si>
+  <si>
+    <t>TMP0027</t>
+  </si>
+  <si>
+    <t>TMP0028</t>
+  </si>
+  <si>
+    <t>TMP0029</t>
+  </si>
+  <si>
+    <t>TMP0030</t>
+  </si>
+  <si>
+    <t>TMP0031</t>
+  </si>
+  <si>
+    <t>TMP0032</t>
+  </si>
+  <si>
+    <t>TMP0033</t>
+  </si>
+  <si>
+    <t>TMP0034</t>
+  </si>
+  <si>
+    <t>TMP0035</t>
+  </si>
+  <si>
+    <t>TMP0036</t>
+  </si>
+  <si>
+    <t>TMP0037</t>
+  </si>
+  <si>
+    <t>TMP0038</t>
+  </si>
+  <si>
+    <t>TMP0039</t>
+  </si>
+  <si>
+    <t>TMP0040</t>
+  </si>
+  <si>
+    <t>TMP0041</t>
+  </si>
+  <si>
+    <t>TMP0042</t>
+  </si>
+  <si>
+    <t>TMP0043</t>
+  </si>
+  <si>
+    <t>TMP0044</t>
+  </si>
+  <si>
+    <t>TMP0045</t>
+  </si>
+  <si>
+    <t>TMP0046</t>
+  </si>
+  <si>
+    <t>TMP0047</t>
+  </si>
+  <si>
+    <t>TMP0048</t>
+  </si>
+  <si>
+    <t>TMP0049</t>
+  </si>
+  <si>
+    <t>TMP0050</t>
+  </si>
+  <si>
+    <t>TMP0051</t>
+  </si>
+  <si>
+    <t>TMP0052</t>
+  </si>
+  <si>
+    <t>TMP0053</t>
+  </si>
+  <si>
+    <t>TMP0054</t>
+  </si>
+  <si>
+    <t>TMP0055</t>
+  </si>
+  <si>
+    <t>TMP0056</t>
+  </si>
+  <si>
+    <t>TMP0057</t>
+  </si>
+  <si>
+    <t>TMP0058</t>
+  </si>
+  <si>
+    <t>TMP0059</t>
+  </si>
+  <si>
+    <t>TMP0060</t>
+  </si>
+  <si>
+    <t>TMP0061</t>
+  </si>
+  <si>
+    <t>TMP0062</t>
+  </si>
+  <si>
+    <t>TMP0063</t>
+  </si>
+  <si>
+    <t>TMP0064</t>
+  </si>
+  <si>
+    <t>TMP0065</t>
+  </si>
+  <si>
+    <t>TMP0066</t>
+  </si>
+  <si>
+    <t>TMP0067</t>
+  </si>
+  <si>
+    <t>TMP0068</t>
+  </si>
+  <si>
+    <t>TMP0069</t>
+  </si>
+  <si>
+    <t>TMP0070</t>
+  </si>
+  <si>
+    <t>TMP0071</t>
+  </si>
+  <si>
+    <t>TMP0072</t>
+  </si>
+  <si>
+    <t>TMP0073</t>
+  </si>
+  <si>
+    <t>TMP0074</t>
+  </si>
+  <si>
+    <t>TMP0075</t>
+  </si>
+  <si>
+    <t>TMP0076</t>
+  </si>
+  <si>
+    <t>TMP0077</t>
+  </si>
+  <si>
+    <t>TMP0078</t>
+  </si>
+  <si>
+    <t>TMP0079</t>
+  </si>
+  <si>
+    <t>TMP0080</t>
+  </si>
+  <si>
+    <t>TMP0081</t>
+  </si>
+  <si>
+    <t>TMP0082</t>
+  </si>
+  <si>
+    <t>TMP0083</t>
+  </si>
+  <si>
+    <t>TMP0084</t>
+  </si>
+  <si>
+    <t>TMP0085</t>
+  </si>
+  <si>
+    <t>TMP0086</t>
+  </si>
+  <si>
+    <t>TMP0087</t>
+  </si>
+  <si>
+    <t>TMP0088</t>
+  </si>
+  <si>
+    <t>TMP0089</t>
+  </si>
+  <si>
+    <t>TMP0090</t>
+  </si>
+  <si>
+    <t>TMP0091</t>
+  </si>
+  <si>
+    <t>TMP0092</t>
+  </si>
+  <si>
+    <t>TMP0093</t>
+  </si>
+  <si>
+    <t>TMP0094</t>
+  </si>
+  <si>
+    <t>TMP0095</t>
+  </si>
+  <si>
+    <t>TMP0096</t>
+  </si>
+  <si>
+    <t>TMP0097</t>
+  </si>
+  <si>
+    <t>TMP0098</t>
+  </si>
+  <si>
+    <t>TMP0099</t>
+  </si>
+  <si>
+    <t>TMP0100</t>
   </si>
 </sst>
 </file>
@@ -432,12 +735,13 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
@@ -447,7 +751,9 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,6 +771,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
       <c r="D2">
         <v>17</v>
       </c>
@@ -482,6 +791,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
       <c r="D3">
         <v>13</v>
       </c>
@@ -499,6 +811,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
       <c r="D4">
         <v>12</v>
       </c>
@@ -516,6 +831,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
       <c r="D5">
         <v>17</v>
       </c>
@@ -533,6 +851,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
       <c r="D6">
         <v>18</v>
       </c>
@@ -550,6 +871,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
       <c r="D7">
         <v>13</v>
       </c>
@@ -567,6 +891,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
       <c r="D8">
         <v>12</v>
       </c>
@@ -584,6 +911,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
       <c r="D9">
         <v>15</v>
       </c>
@@ -601,6 +931,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
       <c r="D10">
         <v>18</v>
       </c>
@@ -618,6 +951,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
       <c r="D11">
         <v>13</v>
       </c>
@@ -635,6 +971,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
       <c r="D12">
         <v>14</v>
       </c>
@@ -652,6 +991,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
       <c r="D13">
         <v>13</v>
       </c>
@@ -669,6 +1011,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
       <c r="D14">
         <v>13</v>
       </c>
@@ -686,6 +1031,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
       <c r="D15">
         <v>17</v>
       </c>
@@ -703,6 +1051,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
       <c r="D16">
         <v>18</v>
       </c>
@@ -719,7 +1070,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
       <c r="D17">
         <v>16</v>
       </c>
@@ -736,7 +1090,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
       <c r="D18">
         <v>15</v>
       </c>
@@ -753,7 +1110,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
       <c r="D19">
         <v>16</v>
       </c>
@@ -770,7 +1130,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
       <c r="D20">
         <v>13</v>
       </c>
@@ -787,7 +1150,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
       <c r="D21">
         <v>17</v>
       </c>
@@ -804,7 +1170,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
       <c r="D22">
         <v>16</v>
       </c>
@@ -821,7 +1190,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
       <c r="D23">
         <v>12</v>
       </c>
@@ -838,7 +1210,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
       <c r="D24">
         <v>13</v>
       </c>
@@ -855,7 +1230,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
       <c r="D25">
         <v>16</v>
       </c>
@@ -872,7 +1250,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
       <c r="D26">
         <v>18</v>
       </c>
@@ -889,7 +1270,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
       <c r="D27">
         <v>12</v>
       </c>
@@ -906,7 +1290,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
       <c r="D28">
         <v>16</v>
       </c>
@@ -923,7 +1310,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
       <c r="D29">
         <v>18</v>
       </c>
@@ -940,7 +1330,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
       <c r="D30">
         <v>14</v>
       </c>
@@ -957,7 +1350,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
       <c r="D31">
         <v>15</v>
       </c>
@@ -974,7 +1370,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
       <c r="D32">
         <v>13</v>
       </c>
@@ -991,7 +1390,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
       <c r="D33">
         <v>13</v>
       </c>
@@ -1008,7 +1410,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
       <c r="D34">
         <v>12</v>
       </c>
@@ -1025,7 +1430,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
       <c r="D35">
         <v>16</v>
       </c>
@@ -1042,7 +1450,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
       <c r="D36">
         <v>13</v>
       </c>
@@ -1059,7 +1470,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
       <c r="D37">
         <v>12</v>
       </c>
@@ -1076,7 +1490,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
       <c r="D38">
         <v>15</v>
       </c>
@@ -1093,7 +1510,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
       <c r="D39">
         <v>14</v>
       </c>
@@ -1110,7 +1530,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
       <c r="D40">
         <v>15</v>
       </c>
@@ -1127,7 +1550,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
       <c r="D41">
         <v>13</v>
       </c>
@@ -1144,7 +1570,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
       <c r="D42">
         <v>16</v>
       </c>
@@ -1161,7 +1590,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
       <c r="D43">
         <v>15</v>
       </c>
@@ -1178,7 +1610,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
       <c r="D44">
         <v>15</v>
       </c>
@@ -1195,7 +1630,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
       <c r="D45">
         <v>15</v>
       </c>
@@ -1212,7 +1650,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
       <c r="D46">
         <v>12</v>
       </c>
@@ -1229,7 +1670,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
       <c r="D47">
         <v>15</v>
       </c>
@@ -1246,7 +1690,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
       <c r="D48">
         <v>16</v>
       </c>
@@ -1263,7 +1710,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
       <c r="D49">
         <v>13</v>
       </c>
@@ -1280,7 +1730,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
       <c r="D50">
         <v>16</v>
       </c>
@@ -1297,7 +1750,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
       <c r="D51">
         <v>14</v>
       </c>
@@ -1314,7 +1770,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
       <c r="D52">
         <v>17</v>
       </c>
@@ -1331,7 +1790,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
       <c r="D53">
         <v>15</v>
       </c>
@@ -1348,7 +1810,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
       <c r="D54">
         <v>13</v>
       </c>
@@ -1365,7 +1830,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
       <c r="D55">
         <v>13</v>
       </c>
@@ -1382,7 +1850,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
       <c r="D56">
         <v>14</v>
       </c>
@@ -1399,7 +1870,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
       <c r="D57">
         <v>17</v>
       </c>
@@ -1416,7 +1890,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
       <c r="D58">
         <v>17</v>
       </c>
@@ -1433,7 +1910,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
       <c r="D59">
         <v>14</v>
       </c>
@@ -1450,7 +1930,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>73</v>
+      </c>
       <c r="D60">
         <v>12</v>
       </c>
@@ -1467,7 +1950,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
       <c r="D61">
         <v>15</v>
       </c>
@@ -1484,7 +1970,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>75</v>
+      </c>
       <c r="D62">
         <v>13</v>
       </c>
@@ -1501,7 +1990,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
       <c r="D63">
         <v>12</v>
       </c>
@@ -1518,7 +2010,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>77</v>
+      </c>
       <c r="D64">
         <v>17</v>
       </c>
@@ -1535,7 +2030,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>78</v>
+      </c>
       <c r="D65">
         <v>16</v>
       </c>
@@ -1552,7 +2050,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
       <c r="D66">
         <v>12</v>
       </c>
@@ -1569,7 +2070,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>80</v>
+      </c>
       <c r="D67">
         <v>18</v>
       </c>
@@ -1586,7 +2090,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>81</v>
+      </c>
       <c r="D68">
         <v>15</v>
       </c>
@@ -1603,7 +2110,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>82</v>
+      </c>
       <c r="D69">
         <v>14</v>
       </c>
@@ -1620,7 +2130,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>83</v>
+      </c>
       <c r="D70">
         <v>13</v>
       </c>
@@ -1637,7 +2150,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>84</v>
+      </c>
       <c r="D71">
         <v>14</v>
       </c>
@@ -1654,7 +2170,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>85</v>
+      </c>
       <c r="D72">
         <v>13</v>
       </c>
@@ -1671,7 +2190,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
       <c r="D73">
         <v>14</v>
       </c>
@@ -1688,7 +2210,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
       <c r="D74">
         <v>13</v>
       </c>
@@ -1705,7 +2230,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>88</v>
+      </c>
       <c r="D75">
         <v>18</v>
       </c>
@@ -1722,7 +2250,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>89</v>
+      </c>
       <c r="D76">
         <v>14</v>
       </c>
@@ -1739,7 +2270,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
       <c r="D77">
         <v>17</v>
       </c>
@@ -1756,7 +2290,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>91</v>
+      </c>
       <c r="D78">
         <v>16</v>
       </c>
@@ -1773,7 +2310,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>92</v>
+      </c>
       <c r="D79">
         <v>17</v>
       </c>
@@ -1790,7 +2330,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>93</v>
+      </c>
       <c r="D80">
         <v>14</v>
       </c>
@@ -1807,7 +2350,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>94</v>
+      </c>
       <c r="D81">
         <v>17</v>
       </c>
@@ -1824,7 +2370,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>95</v>
+      </c>
       <c r="D82">
         <v>13</v>
       </c>
@@ -1841,7 +2390,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>96</v>
+      </c>
       <c r="D83">
         <v>17</v>
       </c>
@@ -1858,7 +2410,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>97</v>
+      </c>
       <c r="D84">
         <v>13</v>
       </c>
@@ -1875,7 +2430,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>98</v>
+      </c>
       <c r="D85">
         <v>15</v>
       </c>
@@ -1892,7 +2450,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>99</v>
+      </c>
       <c r="D86">
         <v>13</v>
       </c>
@@ -1909,7 +2470,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>100</v>
+      </c>
       <c r="D87">
         <v>17</v>
       </c>
@@ -1926,7 +2490,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>101</v>
+      </c>
       <c r="D88">
         <v>18</v>
       </c>
@@ -1943,7 +2510,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>102</v>
+      </c>
       <c r="D89">
         <v>13</v>
       </c>
@@ -1960,7 +2530,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>103</v>
+      </c>
       <c r="D90">
         <v>16</v>
       </c>
@@ -1977,7 +2550,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>104</v>
+      </c>
       <c r="D91">
         <v>15</v>
       </c>
@@ -1994,7 +2570,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>105</v>
+      </c>
       <c r="D92">
         <v>17</v>
       </c>
@@ -2011,7 +2590,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>106</v>
+      </c>
       <c r="D93">
         <v>14</v>
       </c>
@@ -2028,7 +2610,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>107</v>
+      </c>
       <c r="D94">
         <v>12</v>
       </c>
@@ -2045,7 +2630,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>108</v>
+      </c>
       <c r="D95">
         <v>13</v>
       </c>
@@ -2062,7 +2650,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>109</v>
+      </c>
       <c r="D96">
         <v>16</v>
       </c>
@@ -2079,7 +2670,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>110</v>
+      </c>
       <c r="D97">
         <v>15</v>
       </c>
@@ -2096,7 +2690,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>111</v>
+      </c>
       <c r="D98">
         <v>14</v>
       </c>
@@ -2113,7 +2710,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>112</v>
+      </c>
       <c r="D99">
         <v>14</v>
       </c>
@@ -2130,7 +2730,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>113</v>
+      </c>
       <c r="D100">
         <v>17</v>
       </c>
@@ -2147,7 +2750,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>114</v>
+      </c>
       <c r="D101">
         <v>16</v>
       </c>

--- a/estudiante.xlsx
+++ b/estudiante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prueba\DataCube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7451AD2-9072-4977-B0BA-703908F9AA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1AFD0F-3C1C-4386-82CF-3C29E95FFD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,22 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="115">
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Nivel Educativo</t>
-  </si>
-  <si>
-    <t>Comunidad</t>
-  </si>
-  <si>
-    <t>Grupo Étnico</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="117">
   <si>
     <t>Masculino</t>
   </si>
@@ -46,9 +31,6 @@
     <t>Secundaria</t>
   </si>
   <si>
-    <t>Preparatoria</t>
-  </si>
-  <si>
     <t>Rural</t>
   </si>
   <si>
@@ -365,6 +347,30 @@
   </si>
   <si>
     <t>TMP0100</t>
+  </si>
+  <si>
+    <t>Superior</t>
+  </si>
+  <si>
+    <t>Media superior</t>
+  </si>
+  <si>
+    <t>Primaria</t>
+  </si>
+  <si>
+    <t>edad</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>nivel_educativo</t>
+  </si>
+  <si>
+    <t>comunidad</t>
+  </si>
+  <si>
+    <t>grupo_etnio</t>
   </si>
 </sst>
 </file>
@@ -735,7 +741,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,7 +749,7 @@
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -752,2022 +758,2022 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
         <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
         <v>7</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D23">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
         <v>7</v>
-      </c>
-      <c r="G26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D27">
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D29">
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D30">
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D31">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D32">
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D33">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D34">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
         <v>7</v>
-      </c>
-      <c r="G34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D35">
         <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D36">
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
         <v>7</v>
-      </c>
-      <c r="G36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D37">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D38">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" t="s">
         <v>7</v>
-      </c>
-      <c r="G38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D39">
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G39" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D40">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D41">
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D42">
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D43">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D44">
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D45">
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" t="s">
         <v>7</v>
-      </c>
-      <c r="G45" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D46">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G46" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D47">
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H47" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D49">
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G49" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D50">
         <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="G50" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D51">
         <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G51" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D52">
         <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="G52" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D53">
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D54">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
+        <v>110</v>
+      </c>
+      <c r="G54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" t="s">
         <v>7</v>
-      </c>
-      <c r="G54" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D55">
         <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="G55" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D56">
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G56" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D57">
         <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="G57" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D58">
         <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G58" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D59">
         <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F59" t="s">
+        <v>110</v>
+      </c>
+      <c r="G59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" t="s">
         <v>7</v>
-      </c>
-      <c r="G59" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D60">
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="G60" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D61">
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G61" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H61" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D62">
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D63">
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D64">
         <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="G64" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D65">
         <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D66">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G66" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D67">
         <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D68">
         <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G68" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H68" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D69">
         <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D70">
         <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="G70" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D71">
         <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G71" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D72">
         <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G72" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D73">
         <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H73" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D74">
         <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G74" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D75">
         <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G75" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D76">
         <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="G76" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D77">
         <v>17</v>
       </c>
       <c r="E77" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="G77" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D78">
         <v>16</v>
       </c>
       <c r="E78" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G78" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D79">
         <v>17</v>
       </c>
       <c r="E79" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G79" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D80">
         <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="G80" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D81">
         <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D82">
         <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
+        <v>110</v>
+      </c>
+      <c r="G82" t="s">
+        <v>4</v>
+      </c>
+      <c r="H82" t="s">
         <v>7</v>
-      </c>
-      <c r="G82" t="s">
-        <v>10</v>
-      </c>
-      <c r="H82" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D83">
         <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G83" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D84">
         <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G84" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D85">
         <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G85" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D86">
         <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="G86" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D87">
         <v>17</v>
       </c>
       <c r="E87" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="G87" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H87" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D88">
         <v>18</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G88" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H88" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D89">
         <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G89" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D90">
         <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G90" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D91">
         <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="G91" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D92">
         <v>17</v>
       </c>
       <c r="E92" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G92" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D93">
         <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H93" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D94">
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F94" t="s">
+        <v>110</v>
+      </c>
+      <c r="G94" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" t="s">
         <v>7</v>
-      </c>
-      <c r="G94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D95">
         <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F95" t="s">
+        <v>111</v>
+      </c>
+      <c r="G95" t="s">
+        <v>3</v>
+      </c>
+      <c r="H95" t="s">
         <v>7</v>
-      </c>
-      <c r="G95" t="s">
-        <v>9</v>
-      </c>
-      <c r="H95" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D96">
         <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="G96" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H96" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D97">
         <v>15</v>
       </c>
       <c r="E97" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G97" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H97" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D98">
         <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G98" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D99">
         <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G99" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D100">
         <v>17</v>
       </c>
       <c r="E100" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="G100" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H100" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D101">
         <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G101" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/estudiante.xlsx
+++ b/estudiante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prueba\DataCube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1AFD0F-3C1C-4386-82CF-3C29E95FFD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BAA06B-90D4-4D71-BEB0-24CF1861C61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="217">
   <si>
     <t>Masculino</t>
   </si>
@@ -371,6 +371,306 @@
   </si>
   <si>
     <t>grupo_etnio</t>
+  </si>
+  <si>
+    <t>TMP0101</t>
+  </si>
+  <si>
+    <t>TMP0102</t>
+  </si>
+  <si>
+    <t>TMP0103</t>
+  </si>
+  <si>
+    <t>TMP0104</t>
+  </si>
+  <si>
+    <t>TMP0105</t>
+  </si>
+  <si>
+    <t>TMP0106</t>
+  </si>
+  <si>
+    <t>TMP0107</t>
+  </si>
+  <si>
+    <t>TMP0108</t>
+  </si>
+  <si>
+    <t>TMP0109</t>
+  </si>
+  <si>
+    <t>TMP0110</t>
+  </si>
+  <si>
+    <t>TMP0111</t>
+  </si>
+  <si>
+    <t>TMP0112</t>
+  </si>
+  <si>
+    <t>TMP0113</t>
+  </si>
+  <si>
+    <t>TMP0114</t>
+  </si>
+  <si>
+    <t>TMP0115</t>
+  </si>
+  <si>
+    <t>TMP0116</t>
+  </si>
+  <si>
+    <t>TMP0117</t>
+  </si>
+  <si>
+    <t>TMP0118</t>
+  </si>
+  <si>
+    <t>TMP0119</t>
+  </si>
+  <si>
+    <t>TMP0120</t>
+  </si>
+  <si>
+    <t>TMP0121</t>
+  </si>
+  <si>
+    <t>TMP0122</t>
+  </si>
+  <si>
+    <t>TMP0123</t>
+  </si>
+  <si>
+    <t>TMP0124</t>
+  </si>
+  <si>
+    <t>TMP0125</t>
+  </si>
+  <si>
+    <t>TMP0126</t>
+  </si>
+  <si>
+    <t>TMP0127</t>
+  </si>
+  <si>
+    <t>TMP0128</t>
+  </si>
+  <si>
+    <t>TMP0129</t>
+  </si>
+  <si>
+    <t>TMP0130</t>
+  </si>
+  <si>
+    <t>TMP0131</t>
+  </si>
+  <si>
+    <t>TMP0132</t>
+  </si>
+  <si>
+    <t>TMP0133</t>
+  </si>
+  <si>
+    <t>TMP0134</t>
+  </si>
+  <si>
+    <t>TMP0135</t>
+  </si>
+  <si>
+    <t>TMP0136</t>
+  </si>
+  <si>
+    <t>TMP0137</t>
+  </si>
+  <si>
+    <t>TMP0138</t>
+  </si>
+  <si>
+    <t>TMP0139</t>
+  </si>
+  <si>
+    <t>TMP0140</t>
+  </si>
+  <si>
+    <t>TMP0141</t>
+  </si>
+  <si>
+    <t>TMP0142</t>
+  </si>
+  <si>
+    <t>TMP0143</t>
+  </si>
+  <si>
+    <t>TMP0144</t>
+  </si>
+  <si>
+    <t>TMP0145</t>
+  </si>
+  <si>
+    <t>TMP0146</t>
+  </si>
+  <si>
+    <t>TMP0147</t>
+  </si>
+  <si>
+    <t>TMP0148</t>
+  </si>
+  <si>
+    <t>TMP0149</t>
+  </si>
+  <si>
+    <t>TMP0150</t>
+  </si>
+  <si>
+    <t>TMP0151</t>
+  </si>
+  <si>
+    <t>TMP0152</t>
+  </si>
+  <si>
+    <t>TMP0153</t>
+  </si>
+  <si>
+    <t>TMP0154</t>
+  </si>
+  <si>
+    <t>TMP0155</t>
+  </si>
+  <si>
+    <t>TMP0156</t>
+  </si>
+  <si>
+    <t>TMP0157</t>
+  </si>
+  <si>
+    <t>TMP0158</t>
+  </si>
+  <si>
+    <t>TMP0159</t>
+  </si>
+  <si>
+    <t>TMP0160</t>
+  </si>
+  <si>
+    <t>TMP0161</t>
+  </si>
+  <si>
+    <t>TMP0162</t>
+  </si>
+  <si>
+    <t>TMP0163</t>
+  </si>
+  <si>
+    <t>TMP0164</t>
+  </si>
+  <si>
+    <t>TMP0165</t>
+  </si>
+  <si>
+    <t>TMP0166</t>
+  </si>
+  <si>
+    <t>TMP0167</t>
+  </si>
+  <si>
+    <t>TMP0168</t>
+  </si>
+  <si>
+    <t>TMP0169</t>
+  </si>
+  <si>
+    <t>TMP0170</t>
+  </si>
+  <si>
+    <t>TMP0171</t>
+  </si>
+  <si>
+    <t>TMP0172</t>
+  </si>
+  <si>
+    <t>TMP0173</t>
+  </si>
+  <si>
+    <t>TMP0174</t>
+  </si>
+  <si>
+    <t>TMP0175</t>
+  </si>
+  <si>
+    <t>TMP0176</t>
+  </si>
+  <si>
+    <t>TMP0177</t>
+  </si>
+  <si>
+    <t>TMP0178</t>
+  </si>
+  <si>
+    <t>TMP0179</t>
+  </si>
+  <si>
+    <t>TMP0180</t>
+  </si>
+  <si>
+    <t>TMP0181</t>
+  </si>
+  <si>
+    <t>TMP0182</t>
+  </si>
+  <si>
+    <t>TMP0183</t>
+  </si>
+  <si>
+    <t>TMP0184</t>
+  </si>
+  <si>
+    <t>TMP0185</t>
+  </si>
+  <si>
+    <t>TMP0186</t>
+  </si>
+  <si>
+    <t>TMP0187</t>
+  </si>
+  <si>
+    <t>TMP0188</t>
+  </si>
+  <si>
+    <t>TMP0189</t>
+  </si>
+  <si>
+    <t>TMP0190</t>
+  </si>
+  <si>
+    <t>TMP0191</t>
+  </si>
+  <si>
+    <t>TMP0192</t>
+  </si>
+  <si>
+    <t>TMP0193</t>
+  </si>
+  <si>
+    <t>TMP0194</t>
+  </si>
+  <si>
+    <t>TMP0195</t>
+  </si>
+  <si>
+    <t>TMP0196</t>
+  </si>
+  <si>
+    <t>TMP0197</t>
+  </si>
+  <si>
+    <t>TMP0198</t>
+  </si>
+  <si>
+    <t>TMP0199</t>
+  </si>
+  <si>
+    <t>TMP0200</t>
   </si>
 </sst>
 </file>
@@ -738,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J211" sqref="J211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,7 +1081,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -793,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -801,19 +1101,19 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -821,19 +1121,19 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -841,7 +1141,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -853,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -861,7 +1161,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
@@ -881,19 +1181,19 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -901,7 +1201,7 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
@@ -913,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -921,19 +1221,19 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -941,7 +1241,7 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
@@ -953,7 +1253,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -961,19 +1261,19 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -981,13 +1281,13 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
         <v>4</v>
@@ -1001,19 +1301,19 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1021,16 +1321,16 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" t="s">
         <v>7</v>
@@ -1041,16 +1341,16 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
         <v>5</v>
@@ -1061,7 +1361,7 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -1070,10 +1370,10 @@
         <v>110</v>
       </c>
       <c r="G16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
@@ -1081,19 +1381,19 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="G17" t="s">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
@@ -1101,13 +1401,13 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
         <v>4</v>
@@ -1121,13 +1421,13 @@
         <v>26</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G19" t="s">
         <v>3</v>
@@ -1144,16 +1444,16 @@
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
@@ -1161,7 +1461,7 @@
         <v>28</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
@@ -1181,19 +1481,19 @@
         <v>29</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
@@ -1201,19 +1501,19 @@
         <v>30</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="G23" t="s">
         <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
@@ -1221,16 +1521,16 @@
         <v>31</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" t="s">
         <v>6</v>
@@ -1241,19 +1541,19 @@
         <v>32</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
@@ -1261,19 +1561,19 @@
         <v>33</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
@@ -1281,13 +1581,13 @@
         <v>34</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="G27" t="s">
         <v>4</v>
@@ -1301,19 +1601,19 @@
         <v>35</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.3">
@@ -1321,13 +1621,13 @@
         <v>36</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G29" t="s">
         <v>3</v>
@@ -1341,16 +1641,16 @@
         <v>37</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H30" t="s">
         <v>6</v>
@@ -1361,19 +1661,19 @@
         <v>38</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G31" t="s">
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.3">
@@ -1381,19 +1681,19 @@
         <v>39</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.3">
@@ -1401,19 +1701,19 @@
         <v>40</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G33" t="s">
         <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.3">
@@ -1421,10 +1721,10 @@
         <v>41</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>109</v>
@@ -1433,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.3">
@@ -1444,7 +1744,7 @@
         <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>110</v>
@@ -1453,7 +1753,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.3">
@@ -1461,19 +1761,19 @@
         <v>43</v>
       </c>
       <c r="D36">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="G36" t="s">
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.3">
@@ -1487,13 +1787,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.3">
@@ -1501,19 +1801,19 @@
         <v>45</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G38" t="s">
         <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.3">
@@ -1521,19 +1821,19 @@
         <v>46</v>
       </c>
       <c r="D39">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G39" t="s">
         <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.3">
@@ -1541,16 +1841,16 @@
         <v>47</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" t="s">
         <v>7</v>
@@ -1561,13 +1861,13 @@
         <v>48</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G41" t="s">
         <v>4</v>
@@ -1581,16 +1881,16 @@
         <v>49</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" t="s">
         <v>5</v>
@@ -1601,16 +1901,16 @@
         <v>50</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="G43" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H43" t="s">
         <v>5</v>
@@ -1621,13 +1921,13 @@
         <v>51</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E44" t="s">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G44" t="s">
         <v>3</v>
@@ -1641,16 +1941,16 @@
         <v>52</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" t="s">
         <v>7</v>
@@ -1661,19 +1961,19 @@
         <v>53</v>
       </c>
       <c r="D46">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="G46" t="s">
         <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.3">
@@ -1681,13 +1981,13 @@
         <v>54</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="G47" t="s">
         <v>4</v>
@@ -1701,7 +2001,7 @@
         <v>55</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
         <v>0</v>
@@ -1710,10 +2010,10 @@
         <v>111</v>
       </c>
       <c r="G48" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.3">
@@ -1721,19 +2021,19 @@
         <v>56</v>
       </c>
       <c r="D49">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G49" t="s">
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.3">
@@ -1741,19 +2041,19 @@
         <v>57</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.3">
@@ -1761,19 +2061,19 @@
         <v>58</v>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.3">
@@ -1787,10 +2087,10 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G52" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H52" t="s">
         <v>5</v>
@@ -1810,10 +2110,10 @@
         <v>110</v>
       </c>
       <c r="G53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.3">
@@ -1821,7 +2121,7 @@
         <v>61</v>
       </c>
       <c r="D54">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
         <v>1</v>
@@ -1830,10 +2130,10 @@
         <v>110</v>
       </c>
       <c r="G54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.3">
@@ -1841,19 +2141,19 @@
         <v>62</v>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
         <v>109</v>
       </c>
       <c r="G55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.3">
@@ -1861,16 +2161,16 @@
         <v>63</v>
       </c>
       <c r="D56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>110</v>
       </c>
       <c r="G56" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H56" t="s">
         <v>5</v>
@@ -1881,19 +2181,19 @@
         <v>64</v>
       </c>
       <c r="D57">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="G57" t="s">
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.3">
@@ -1901,16 +2201,16 @@
         <v>65</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G58" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H58" t="s">
         <v>6</v>
@@ -1921,13 +2221,13 @@
         <v>66</v>
       </c>
       <c r="D59">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="G59" t="s">
         <v>3</v>
@@ -1941,19 +2241,19 @@
         <v>67</v>
       </c>
       <c r="D60">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G60" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.3">
@@ -1961,13 +2261,13 @@
         <v>68</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G61" t="s">
         <v>4</v>
@@ -1981,19 +2281,19 @@
         <v>69</v>
       </c>
       <c r="D62">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E62" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>110</v>
       </c>
       <c r="G62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.3">
@@ -2007,13 +2307,13 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="G63" t="s">
         <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.3">
@@ -2021,19 +2321,19 @@
         <v>71</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G64" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.3">
@@ -2041,19 +2341,19 @@
         <v>72</v>
       </c>
       <c r="D65">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="G65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.3">
@@ -2061,19 +2361,19 @@
         <v>73</v>
       </c>
       <c r="D66">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E66" t="s">
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G66" t="s">
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.3">
@@ -2081,16 +2381,16 @@
         <v>74</v>
       </c>
       <c r="D67">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H67" t="s">
         <v>6</v>
@@ -2101,7 +2401,7 @@
         <v>75</v>
       </c>
       <c r="D68">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
         <v>0</v>
@@ -2110,10 +2410,10 @@
         <v>110</v>
       </c>
       <c r="G68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.3">
@@ -2121,19 +2421,19 @@
         <v>76</v>
       </c>
       <c r="D69">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="G69" t="s">
         <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.3">
@@ -2141,13 +2441,13 @@
         <v>77</v>
       </c>
       <c r="D70">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G70" t="s">
         <v>3</v>
@@ -2161,19 +2461,19 @@
         <v>78</v>
       </c>
       <c r="D71">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G71" t="s">
         <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.3">
@@ -2181,7 +2481,7 @@
         <v>79</v>
       </c>
       <c r="D72">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E72" t="s">
         <v>1</v>
@@ -2190,7 +2490,7 @@
         <v>110</v>
       </c>
       <c r="G72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H72" t="s">
         <v>6</v>
@@ -2201,16 +2501,16 @@
         <v>80</v>
       </c>
       <c r="D73">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E73" t="s">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="G73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H73" t="s">
         <v>7</v>
@@ -2221,19 +2521,19 @@
         <v>81</v>
       </c>
       <c r="D74">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E74" t="s">
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G74" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="3:8" x14ac:dyDescent="0.3">
@@ -2241,16 +2541,16 @@
         <v>82</v>
       </c>
       <c r="D75">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="G75" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H75" t="s">
         <v>5</v>
@@ -2261,19 +2561,19 @@
         <v>83</v>
       </c>
       <c r="D76">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G76" t="s">
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="3:8" x14ac:dyDescent="0.3">
@@ -2281,19 +2581,19 @@
         <v>84</v>
       </c>
       <c r="D77">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="G77" t="s">
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="3:8" x14ac:dyDescent="0.3">
@@ -2301,19 +2601,19 @@
         <v>85</v>
       </c>
       <c r="D78">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G78" t="s">
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="3:8" x14ac:dyDescent="0.3">
@@ -2321,19 +2621,19 @@
         <v>86</v>
       </c>
       <c r="D79">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G79" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="3:8" x14ac:dyDescent="0.3">
@@ -2341,7 +2641,7 @@
         <v>87</v>
       </c>
       <c r="D80">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E80" t="s">
         <v>1</v>
@@ -2361,13 +2661,13 @@
         <v>88</v>
       </c>
       <c r="D81">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E81" t="s">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="G81" t="s">
         <v>3</v>
@@ -2381,13 +2681,13 @@
         <v>89</v>
       </c>
       <c r="D82">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G82" t="s">
         <v>4</v>
@@ -2401,16 +2701,16 @@
         <v>90</v>
       </c>
       <c r="D83">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H83" t="s">
         <v>6</v>
@@ -2421,19 +2721,19 @@
         <v>91</v>
       </c>
       <c r="D84">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="G84" t="s">
         <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.3">
@@ -2441,16 +2741,16 @@
         <v>92</v>
       </c>
       <c r="D85">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G85" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H85" t="s">
         <v>6</v>
@@ -2461,19 +2761,19 @@
         <v>93</v>
       </c>
       <c r="D86">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E86" t="s">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.3">
@@ -2481,16 +2781,16 @@
         <v>94</v>
       </c>
       <c r="D87">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
         <v>109</v>
       </c>
       <c r="G87" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H87" t="s">
         <v>5</v>
@@ -2501,19 +2801,19 @@
         <v>95</v>
       </c>
       <c r="D88">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="G88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.3">
@@ -2521,16 +2821,16 @@
         <v>96</v>
       </c>
       <c r="D89">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="G89" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H89" t="s">
         <v>6</v>
@@ -2541,19 +2841,19 @@
         <v>97</v>
       </c>
       <c r="D90">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E90" t="s">
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="G90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.3">
@@ -2561,16 +2861,16 @@
         <v>98</v>
       </c>
       <c r="D91">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="s">
         <v>109</v>
       </c>
       <c r="G91" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H91" t="s">
         <v>6</v>
@@ -2581,19 +2881,19 @@
         <v>99</v>
       </c>
       <c r="D92">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E92" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G92" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="3:8" x14ac:dyDescent="0.3">
@@ -2601,19 +2901,19 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E93" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="G93" t="s">
         <v>3</v>
       </c>
       <c r="H93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.3">
@@ -2621,7 +2921,7 @@
         <v>101</v>
       </c>
       <c r="D94">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E94" t="s">
         <v>0</v>
@@ -2641,16 +2941,16 @@
         <v>102</v>
       </c>
       <c r="D95">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E95" t="s">
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="G95" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H95" t="s">
         <v>7</v>
@@ -2661,16 +2961,16 @@
         <v>103</v>
       </c>
       <c r="D96">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="G96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H96" t="s">
         <v>5</v>
@@ -2681,19 +2981,19 @@
         <v>104</v>
       </c>
       <c r="D97">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E97" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
         <v>110</v>
       </c>
       <c r="G97" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.3">
@@ -2701,16 +3001,16 @@
         <v>105</v>
       </c>
       <c r="D98">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H98" t="s">
         <v>7</v>
@@ -2721,19 +3021,19 @@
         <v>106</v>
       </c>
       <c r="D99">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="G99" t="s">
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="3:8" x14ac:dyDescent="0.3">
@@ -2741,13 +3041,13 @@
         <v>107</v>
       </c>
       <c r="D100">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E100" t="s">
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G100" t="s">
         <v>3</v>
@@ -2761,7 +3061,7 @@
         <v>108</v>
       </c>
       <c r="D101">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E101" t="s">
         <v>0</v>
@@ -2770,10 +3070,2010 @@
         <v>2</v>
       </c>
       <c r="G101" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H101" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>117</v>
+      </c>
+      <c r="D102">
+        <v>20</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>109</v>
+      </c>
+      <c r="G102" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>118</v>
+      </c>
+      <c r="D103">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>111</v>
+      </c>
+      <c r="G103" t="s">
+        <v>3</v>
+      </c>
+      <c r="H103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>119</v>
+      </c>
+      <c r="D104">
+        <v>16</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>110</v>
+      </c>
+      <c r="G104" t="s">
+        <v>3</v>
+      </c>
+      <c r="H104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>120</v>
+      </c>
+      <c r="D105">
+        <v>18</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>109</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3</v>
+      </c>
+      <c r="H105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>121</v>
+      </c>
+      <c r="D106">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>2</v>
+      </c>
+      <c r="G106" t="s">
+        <v>4</v>
+      </c>
+      <c r="H106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>122</v>
+      </c>
+      <c r="D107">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>2</v>
+      </c>
+      <c r="G107" t="s">
+        <v>4</v>
+      </c>
+      <c r="H107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>123</v>
+      </c>
+      <c r="D108">
+        <v>18</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>109</v>
+      </c>
+      <c r="G108" t="s">
+        <v>3</v>
+      </c>
+      <c r="H108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>124</v>
+      </c>
+      <c r="D109">
+        <v>17</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>110</v>
+      </c>
+      <c r="G109" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>111</v>
+      </c>
+      <c r="G110" t="s">
+        <v>4</v>
+      </c>
+      <c r="H110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>126</v>
+      </c>
+      <c r="D111">
+        <v>19</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>109</v>
+      </c>
+      <c r="G111" t="s">
+        <v>4</v>
+      </c>
+      <c r="H111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>127</v>
+      </c>
+      <c r="D112">
+        <v>20</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>109</v>
+      </c>
+      <c r="G112" t="s">
+        <v>3</v>
+      </c>
+      <c r="H112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>128</v>
+      </c>
+      <c r="D113">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>111</v>
+      </c>
+      <c r="G113" t="s">
+        <v>3</v>
+      </c>
+      <c r="H113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>129</v>
+      </c>
+      <c r="D114">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>111</v>
+      </c>
+      <c r="G114" t="s">
+        <v>4</v>
+      </c>
+      <c r="H114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>130</v>
+      </c>
+      <c r="D115">
+        <v>13</v>
+      </c>
+      <c r="E115" t="s">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>2</v>
+      </c>
+      <c r="G115" t="s">
+        <v>4</v>
+      </c>
+      <c r="H115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>131</v>
+      </c>
+      <c r="D116">
+        <v>17</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>110</v>
+      </c>
+      <c r="G116" t="s">
+        <v>3</v>
+      </c>
+      <c r="H116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>132</v>
+      </c>
+      <c r="D117">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>2</v>
+      </c>
+      <c r="G117" t="s">
+        <v>4</v>
+      </c>
+      <c r="H117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>133</v>
+      </c>
+      <c r="D118">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>111</v>
+      </c>
+      <c r="G118" t="s">
+        <v>3</v>
+      </c>
+      <c r="H118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>134</v>
+      </c>
+      <c r="D119">
+        <v>20</v>
+      </c>
+      <c r="E119" t="s">
+        <v>0</v>
+      </c>
+      <c r="F119" t="s">
+        <v>109</v>
+      </c>
+      <c r="G119" t="s">
+        <v>4</v>
+      </c>
+      <c r="H119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>135</v>
+      </c>
+      <c r="D120">
+        <v>11</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>111</v>
+      </c>
+      <c r="G120" t="s">
+        <v>4</v>
+      </c>
+      <c r="H120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>136</v>
+      </c>
+      <c r="D121">
+        <v>13</v>
+      </c>
+      <c r="E121" t="s">
+        <v>0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>2</v>
+      </c>
+      <c r="G121" t="s">
+        <v>3</v>
+      </c>
+      <c r="H121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>137</v>
+      </c>
+      <c r="D122">
+        <v>13</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>2</v>
+      </c>
+      <c r="G122" t="s">
+        <v>3</v>
+      </c>
+      <c r="H122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>138</v>
+      </c>
+      <c r="D123">
+        <v>22</v>
+      </c>
+      <c r="E123" t="s">
+        <v>0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>109</v>
+      </c>
+      <c r="G123" t="s">
+        <v>4</v>
+      </c>
+      <c r="H123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>139</v>
+      </c>
+      <c r="D124">
+        <v>13</v>
+      </c>
+      <c r="E124" t="s">
+        <v>0</v>
+      </c>
+      <c r="F124" t="s">
+        <v>2</v>
+      </c>
+      <c r="G124" t="s">
+        <v>4</v>
+      </c>
+      <c r="H124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125">
+        <v>17</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
+        <v>109</v>
+      </c>
+      <c r="G125" t="s">
+        <v>3</v>
+      </c>
+      <c r="H125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>141</v>
+      </c>
+      <c r="D126">
+        <v>17</v>
+      </c>
+      <c r="E126" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" t="s">
+        <v>110</v>
+      </c>
+      <c r="G126" t="s">
+        <v>4</v>
+      </c>
+      <c r="H126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>142</v>
+      </c>
+      <c r="D127">
+        <v>11</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
+        <v>111</v>
+      </c>
+      <c r="G127" t="s">
+        <v>4</v>
+      </c>
+      <c r="H127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>143</v>
+      </c>
+      <c r="D128">
+        <v>19</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>109</v>
+      </c>
+      <c r="G128" t="s">
+        <v>3</v>
+      </c>
+      <c r="H128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>144</v>
+      </c>
+      <c r="D129">
+        <v>10</v>
+      </c>
+      <c r="E129" t="s">
+        <v>0</v>
+      </c>
+      <c r="F129" t="s">
+        <v>111</v>
+      </c>
+      <c r="G129" t="s">
+        <v>3</v>
+      </c>
+      <c r="H129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>145</v>
+      </c>
+      <c r="D130">
+        <v>19</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>109</v>
+      </c>
+      <c r="G130" t="s">
+        <v>3</v>
+      </c>
+      <c r="H130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>146</v>
+      </c>
+      <c r="D131">
+        <v>7</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>111</v>
+      </c>
+      <c r="G131" t="s">
+        <v>3</v>
+      </c>
+      <c r="H131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>147</v>
+      </c>
+      <c r="D132">
+        <v>19</v>
+      </c>
+      <c r="E132" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" t="s">
+        <v>109</v>
+      </c>
+      <c r="G132" t="s">
+        <v>4</v>
+      </c>
+      <c r="H132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D133">
+        <v>15</v>
+      </c>
+      <c r="E133" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" t="s">
+        <v>110</v>
+      </c>
+      <c r="G133" t="s">
+        <v>3</v>
+      </c>
+      <c r="H133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>149</v>
+      </c>
+      <c r="D134">
+        <v>15</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>110</v>
+      </c>
+      <c r="G134" t="s">
+        <v>3</v>
+      </c>
+      <c r="H134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>150</v>
+      </c>
+      <c r="D135">
+        <v>18</v>
+      </c>
+      <c r="E135" t="s">
+        <v>0</v>
+      </c>
+      <c r="F135" t="s">
+        <v>109</v>
+      </c>
+      <c r="G135" t="s">
+        <v>4</v>
+      </c>
+      <c r="H135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>151</v>
+      </c>
+      <c r="D136">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>111</v>
+      </c>
+      <c r="G136" t="s">
+        <v>3</v>
+      </c>
+      <c r="H136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D137">
+        <v>16</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>110</v>
+      </c>
+      <c r="G137" t="s">
+        <v>4</v>
+      </c>
+      <c r="H137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>153</v>
+      </c>
+      <c r="D138">
+        <v>17</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>110</v>
+      </c>
+      <c r="G138" t="s">
+        <v>3</v>
+      </c>
+      <c r="H138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>154</v>
+      </c>
+      <c r="D139">
+        <v>18</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
+        <v>109</v>
+      </c>
+      <c r="G139" t="s">
+        <v>4</v>
+      </c>
+      <c r="H139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>155</v>
+      </c>
+      <c r="D140">
+        <v>15</v>
+      </c>
+      <c r="E140" t="s">
+        <v>0</v>
+      </c>
+      <c r="F140" t="s">
+        <v>110</v>
+      </c>
+      <c r="G140" t="s">
+        <v>3</v>
+      </c>
+      <c r="H140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>156</v>
+      </c>
+      <c r="D141">
+        <v>10</v>
+      </c>
+      <c r="E141" t="s">
+        <v>0</v>
+      </c>
+      <c r="F141" t="s">
+        <v>111</v>
+      </c>
+      <c r="G141" t="s">
+        <v>3</v>
+      </c>
+      <c r="H141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>157</v>
+      </c>
+      <c r="D142">
+        <v>9</v>
+      </c>
+      <c r="E142" t="s">
+        <v>0</v>
+      </c>
+      <c r="F142" t="s">
+        <v>111</v>
+      </c>
+      <c r="G142" t="s">
+        <v>3</v>
+      </c>
+      <c r="H142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>158</v>
+      </c>
+      <c r="D143">
+        <v>7</v>
+      </c>
+      <c r="E143" t="s">
+        <v>0</v>
+      </c>
+      <c r="F143" t="s">
+        <v>111</v>
+      </c>
+      <c r="G143" t="s">
+        <v>4</v>
+      </c>
+      <c r="H143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>159</v>
+      </c>
+      <c r="D144">
+        <v>16</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>110</v>
+      </c>
+      <c r="G144" t="s">
+        <v>3</v>
+      </c>
+      <c r="H144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>160</v>
+      </c>
+      <c r="D145">
+        <v>17</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>109</v>
+      </c>
+      <c r="G145" t="s">
+        <v>4</v>
+      </c>
+      <c r="H145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>161</v>
+      </c>
+      <c r="D146">
+        <v>17</v>
+      </c>
+      <c r="E146" t="s">
+        <v>0</v>
+      </c>
+      <c r="F146" t="s">
+        <v>110</v>
+      </c>
+      <c r="G146" t="s">
+        <v>3</v>
+      </c>
+      <c r="H146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>162</v>
+      </c>
+      <c r="D147">
+        <v>21</v>
+      </c>
+      <c r="E147" t="s">
+        <v>0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>109</v>
+      </c>
+      <c r="G147" t="s">
+        <v>4</v>
+      </c>
+      <c r="H147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>163</v>
+      </c>
+      <c r="D148">
+        <v>12</v>
+      </c>
+      <c r="E148" t="s">
+        <v>0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>2</v>
+      </c>
+      <c r="G148" t="s">
+        <v>4</v>
+      </c>
+      <c r="H148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>164</v>
+      </c>
+      <c r="D149">
+        <v>11</v>
+      </c>
+      <c r="E149" t="s">
+        <v>0</v>
+      </c>
+      <c r="F149" t="s">
+        <v>111</v>
+      </c>
+      <c r="G149" t="s">
+        <v>4</v>
+      </c>
+      <c r="H149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>165</v>
+      </c>
+      <c r="D150">
+        <v>16</v>
+      </c>
+      <c r="E150" t="s">
+        <v>0</v>
+      </c>
+      <c r="F150" t="s">
+        <v>110</v>
+      </c>
+      <c r="G150" t="s">
+        <v>4</v>
+      </c>
+      <c r="H150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>166</v>
+      </c>
+      <c r="D151">
+        <v>15</v>
+      </c>
+      <c r="E151" t="s">
+        <v>0</v>
+      </c>
+      <c r="F151" t="s">
+        <v>110</v>
+      </c>
+      <c r="G151" t="s">
+        <v>3</v>
+      </c>
+      <c r="H151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>167</v>
+      </c>
+      <c r="D152">
+        <v>10</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>111</v>
+      </c>
+      <c r="G152" t="s">
+        <v>3</v>
+      </c>
+      <c r="H152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>168</v>
+      </c>
+      <c r="D153">
+        <v>22</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>109</v>
+      </c>
+      <c r="G153" t="s">
+        <v>4</v>
+      </c>
+      <c r="H153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>169</v>
+      </c>
+      <c r="D154">
+        <v>15</v>
+      </c>
+      <c r="E154" t="s">
+        <v>0</v>
+      </c>
+      <c r="F154" t="s">
+        <v>110</v>
+      </c>
+      <c r="G154" t="s">
+        <v>4</v>
+      </c>
+      <c r="H154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>170</v>
+      </c>
+      <c r="D155">
+        <v>8</v>
+      </c>
+      <c r="E155" t="s">
+        <v>0</v>
+      </c>
+      <c r="F155" t="s">
+        <v>111</v>
+      </c>
+      <c r="G155" t="s">
+        <v>3</v>
+      </c>
+      <c r="H155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>171</v>
+      </c>
+      <c r="D156">
+        <v>14</v>
+      </c>
+      <c r="E156" t="s">
+        <v>0</v>
+      </c>
+      <c r="F156" t="s">
+        <v>2</v>
+      </c>
+      <c r="G156" t="s">
+        <v>4</v>
+      </c>
+      <c r="H156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>172</v>
+      </c>
+      <c r="D157">
+        <v>18</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
+        <v>109</v>
+      </c>
+      <c r="G157" t="s">
+        <v>3</v>
+      </c>
+      <c r="H157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>173</v>
+      </c>
+      <c r="D158">
+        <v>16</v>
+      </c>
+      <c r="E158" t="s">
+        <v>0</v>
+      </c>
+      <c r="F158" t="s">
+        <v>110</v>
+      </c>
+      <c r="G158" t="s">
+        <v>3</v>
+      </c>
+      <c r="H158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>174</v>
+      </c>
+      <c r="D159">
+        <v>8</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159" t="s">
+        <v>111</v>
+      </c>
+      <c r="G159" t="s">
+        <v>4</v>
+      </c>
+      <c r="H159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>175</v>
+      </c>
+      <c r="D160">
+        <v>19</v>
+      </c>
+      <c r="E160" t="s">
+        <v>0</v>
+      </c>
+      <c r="F160" t="s">
+        <v>109</v>
+      </c>
+      <c r="G160" t="s">
+        <v>4</v>
+      </c>
+      <c r="H160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
+        <v>176</v>
+      </c>
+      <c r="D161">
+        <v>13</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1</v>
+      </c>
+      <c r="F161" t="s">
+        <v>2</v>
+      </c>
+      <c r="G161" t="s">
+        <v>4</v>
+      </c>
+      <c r="H161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>177</v>
+      </c>
+      <c r="D162">
+        <v>16</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>110</v>
+      </c>
+      <c r="G162" t="s">
+        <v>4</v>
+      </c>
+      <c r="H162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
+        <v>178</v>
+      </c>
+      <c r="D163">
+        <v>12</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>2</v>
+      </c>
+      <c r="G163" t="s">
+        <v>4</v>
+      </c>
+      <c r="H163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
+        <v>179</v>
+      </c>
+      <c r="D164">
+        <v>8</v>
+      </c>
+      <c r="E164" t="s">
+        <v>0</v>
+      </c>
+      <c r="F164" t="s">
+        <v>111</v>
+      </c>
+      <c r="G164" t="s">
+        <v>3</v>
+      </c>
+      <c r="H164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
+        <v>180</v>
+      </c>
+      <c r="D165">
+        <v>17</v>
+      </c>
+      <c r="E165" t="s">
+        <v>0</v>
+      </c>
+      <c r="F165" t="s">
+        <v>110</v>
+      </c>
+      <c r="G165" t="s">
+        <v>3</v>
+      </c>
+      <c r="H165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>181</v>
+      </c>
+      <c r="D166">
+        <v>17</v>
+      </c>
+      <c r="E166" t="s">
+        <v>0</v>
+      </c>
+      <c r="F166" t="s">
+        <v>110</v>
+      </c>
+      <c r="G166" t="s">
+        <v>4</v>
+      </c>
+      <c r="H166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>182</v>
+      </c>
+      <c r="D167">
+        <v>17</v>
+      </c>
+      <c r="E167" t="s">
+        <v>0</v>
+      </c>
+      <c r="F167" t="s">
+        <v>110</v>
+      </c>
+      <c r="G167" t="s">
+        <v>3</v>
+      </c>
+      <c r="H167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>183</v>
+      </c>
+      <c r="D168">
+        <v>17</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1</v>
+      </c>
+      <c r="F168" t="s">
+        <v>109</v>
+      </c>
+      <c r="G168" t="s">
+        <v>4</v>
+      </c>
+      <c r="H168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>184</v>
+      </c>
+      <c r="D169">
+        <v>7</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1</v>
+      </c>
+      <c r="F169" t="s">
+        <v>111</v>
+      </c>
+      <c r="G169" t="s">
+        <v>4</v>
+      </c>
+      <c r="H169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>185</v>
+      </c>
+      <c r="D170">
+        <v>16</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1</v>
+      </c>
+      <c r="F170" t="s">
+        <v>110</v>
+      </c>
+      <c r="G170" t="s">
+        <v>3</v>
+      </c>
+      <c r="H170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>186</v>
+      </c>
+      <c r="D171">
+        <v>13</v>
+      </c>
+      <c r="E171" t="s">
+        <v>0</v>
+      </c>
+      <c r="F171" t="s">
+        <v>2</v>
+      </c>
+      <c r="G171" t="s">
+        <v>3</v>
+      </c>
+      <c r="H171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>187</v>
+      </c>
+      <c r="D172">
+        <v>16</v>
+      </c>
+      <c r="E172" t="s">
+        <v>0</v>
+      </c>
+      <c r="F172" t="s">
+        <v>110</v>
+      </c>
+      <c r="G172" t="s">
+        <v>4</v>
+      </c>
+      <c r="H172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>188</v>
+      </c>
+      <c r="D173">
+        <v>12</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1</v>
+      </c>
+      <c r="F173" t="s">
+        <v>2</v>
+      </c>
+      <c r="G173" t="s">
+        <v>3</v>
+      </c>
+      <c r="H173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>189</v>
+      </c>
+      <c r="D174">
+        <v>19</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
+        <v>109</v>
+      </c>
+      <c r="G174" t="s">
+        <v>4</v>
+      </c>
+      <c r="H174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>190</v>
+      </c>
+      <c r="D175">
+        <v>15</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>110</v>
+      </c>
+      <c r="G175" t="s">
+        <v>4</v>
+      </c>
+      <c r="H175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>191</v>
+      </c>
+      <c r="D176">
+        <v>14</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1</v>
+      </c>
+      <c r="F176" t="s">
+        <v>2</v>
+      </c>
+      <c r="G176" t="s">
+        <v>3</v>
+      </c>
+      <c r="H176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
+        <v>192</v>
+      </c>
+      <c r="D177">
+        <v>12</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1</v>
+      </c>
+      <c r="F177" t="s">
+        <v>111</v>
+      </c>
+      <c r="G177" t="s">
+        <v>3</v>
+      </c>
+      <c r="H177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>193</v>
+      </c>
+      <c r="D178">
+        <v>12</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>2</v>
+      </c>
+      <c r="G178" t="s">
+        <v>3</v>
+      </c>
+      <c r="H178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
+        <v>194</v>
+      </c>
+      <c r="D179">
+        <v>17</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1</v>
+      </c>
+      <c r="F179" t="s">
+        <v>110</v>
+      </c>
+      <c r="G179" t="s">
+        <v>3</v>
+      </c>
+      <c r="H179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
+        <v>195</v>
+      </c>
+      <c r="D180">
+        <v>22</v>
+      </c>
+      <c r="E180" t="s">
+        <v>0</v>
+      </c>
+      <c r="F180" t="s">
+        <v>109</v>
+      </c>
+      <c r="G180" t="s">
+        <v>3</v>
+      </c>
+      <c r="H180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
+        <v>196</v>
+      </c>
+      <c r="D181">
+        <v>17</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1</v>
+      </c>
+      <c r="F181" t="s">
+        <v>110</v>
+      </c>
+      <c r="G181" t="s">
+        <v>3</v>
+      </c>
+      <c r="H181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
+        <v>197</v>
+      </c>
+      <c r="D182">
+        <v>20</v>
+      </c>
+      <c r="E182" t="s">
+        <v>0</v>
+      </c>
+      <c r="F182" t="s">
+        <v>109</v>
+      </c>
+      <c r="G182" t="s">
+        <v>4</v>
+      </c>
+      <c r="H182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
+        <v>198</v>
+      </c>
+      <c r="D183">
+        <v>17</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1</v>
+      </c>
+      <c r="F183" t="s">
+        <v>110</v>
+      </c>
+      <c r="G183" t="s">
+        <v>3</v>
+      </c>
+      <c r="H183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C184" t="s">
+        <v>199</v>
+      </c>
+      <c r="D184">
+        <v>16</v>
+      </c>
+      <c r="E184" t="s">
+        <v>0</v>
+      </c>
+      <c r="F184" t="s">
+        <v>110</v>
+      </c>
+      <c r="G184" t="s">
+        <v>3</v>
+      </c>
+      <c r="H184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
+        <v>200</v>
+      </c>
+      <c r="D185">
+        <v>11</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1</v>
+      </c>
+      <c r="F185" t="s">
+        <v>111</v>
+      </c>
+      <c r="G185" t="s">
+        <v>3</v>
+      </c>
+      <c r="H185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C186" t="s">
+        <v>201</v>
+      </c>
+      <c r="D186">
+        <v>10</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1</v>
+      </c>
+      <c r="F186" t="s">
+        <v>111</v>
+      </c>
+      <c r="G186" t="s">
+        <v>3</v>
+      </c>
+      <c r="H186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C187" t="s">
+        <v>202</v>
+      </c>
+      <c r="D187">
+        <v>7</v>
+      </c>
+      <c r="E187" t="s">
+        <v>0</v>
+      </c>
+      <c r="F187" t="s">
+        <v>111</v>
+      </c>
+      <c r="G187" t="s">
+        <v>3</v>
+      </c>
+      <c r="H187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C188" t="s">
+        <v>203</v>
+      </c>
+      <c r="D188">
+        <v>10</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1</v>
+      </c>
+      <c r="F188" t="s">
+        <v>111</v>
+      </c>
+      <c r="G188" t="s">
+        <v>3</v>
+      </c>
+      <c r="H188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C189" t="s">
+        <v>204</v>
+      </c>
+      <c r="D189">
+        <v>17</v>
+      </c>
+      <c r="E189" t="s">
+        <v>0</v>
+      </c>
+      <c r="F189" t="s">
+        <v>110</v>
+      </c>
+      <c r="G189" t="s">
+        <v>4</v>
+      </c>
+      <c r="H189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C190" t="s">
+        <v>205</v>
+      </c>
+      <c r="D190">
+        <v>16</v>
+      </c>
+      <c r="E190" t="s">
+        <v>0</v>
+      </c>
+      <c r="F190" t="s">
+        <v>110</v>
+      </c>
+      <c r="G190" t="s">
+        <v>4</v>
+      </c>
+      <c r="H190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C191" t="s">
+        <v>206</v>
+      </c>
+      <c r="D191">
+        <v>6</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
+        <v>111</v>
+      </c>
+      <c r="G191" t="s">
+        <v>4</v>
+      </c>
+      <c r="H191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C192" t="s">
+        <v>207</v>
+      </c>
+      <c r="D192">
+        <v>17</v>
+      </c>
+      <c r="E192" t="s">
+        <v>0</v>
+      </c>
+      <c r="F192" t="s">
+        <v>109</v>
+      </c>
+      <c r="G192" t="s">
+        <v>4</v>
+      </c>
+      <c r="H192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
+        <v>208</v>
+      </c>
+      <c r="D193">
+        <v>10</v>
+      </c>
+      <c r="E193" t="s">
+        <v>0</v>
+      </c>
+      <c r="F193" t="s">
+        <v>111</v>
+      </c>
+      <c r="G193" t="s">
+        <v>3</v>
+      </c>
+      <c r="H193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>209</v>
+      </c>
+      <c r="D194">
+        <v>17</v>
+      </c>
+      <c r="E194" t="s">
+        <v>0</v>
+      </c>
+      <c r="F194" t="s">
+        <v>109</v>
+      </c>
+      <c r="G194" t="s">
+        <v>3</v>
+      </c>
+      <c r="H194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>210</v>
+      </c>
+      <c r="D195">
+        <v>8</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1</v>
+      </c>
+      <c r="F195" t="s">
+        <v>111</v>
+      </c>
+      <c r="G195" t="s">
+        <v>3</v>
+      </c>
+      <c r="H195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
+        <v>211</v>
+      </c>
+      <c r="D196">
+        <v>17</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1</v>
+      </c>
+      <c r="F196" t="s">
+        <v>110</v>
+      </c>
+      <c r="G196" t="s">
+        <v>4</v>
+      </c>
+      <c r="H196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
+        <v>212</v>
+      </c>
+      <c r="D197">
+        <v>18</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1</v>
+      </c>
+      <c r="F197" t="s">
+        <v>109</v>
+      </c>
+      <c r="G197" t="s">
+        <v>3</v>
+      </c>
+      <c r="H197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
+        <v>213</v>
+      </c>
+      <c r="D198">
+        <v>15</v>
+      </c>
+      <c r="E198" t="s">
+        <v>0</v>
+      </c>
+      <c r="F198" t="s">
+        <v>110</v>
+      </c>
+      <c r="G198" t="s">
+        <v>4</v>
+      </c>
+      <c r="H198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C199" t="s">
+        <v>214</v>
+      </c>
+      <c r="D199">
+        <v>22</v>
+      </c>
+      <c r="E199" t="s">
+        <v>0</v>
+      </c>
+      <c r="F199" t="s">
+        <v>109</v>
+      </c>
+      <c r="G199" t="s">
+        <v>4</v>
+      </c>
+      <c r="H199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
+        <v>215</v>
+      </c>
+      <c r="D200">
+        <v>21</v>
+      </c>
+      <c r="E200" t="s">
+        <v>0</v>
+      </c>
+      <c r="F200" t="s">
+        <v>109</v>
+      </c>
+      <c r="G200" t="s">
+        <v>3</v>
+      </c>
+      <c r="H200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C201" t="s">
+        <v>216</v>
+      </c>
+      <c r="D201">
+        <v>14</v>
+      </c>
+      <c r="E201" t="s">
+        <v>0</v>
+      </c>
+      <c r="F201" t="s">
+        <v>2</v>
+      </c>
+      <c r="G201" t="s">
+        <v>4</v>
+      </c>
+      <c r="H201" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
